--- a/REGULAR/OJT/NEW DONE/SUMAONG, DANILO.xlsx
+++ b/REGULAR/OJT/NEW DONE/SUMAONG, DANILO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVONITALLA FAMILY\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7658AE75-373A-4D28-9899-695F13A506D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,28 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,11 +285,26 @@
   <si>
     <t>CALAMITY L. 2/3,5,7,12,14</t>
   </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>3/7,8/2023</t>
+  </si>
+  <si>
+    <t>12/23,26-29/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1159,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2570,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2633,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,25 +2699,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K362" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2724,13 +2729,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2739,14 +2744,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3050,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3068,16 +3073,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K362"/>
+  <dimension ref="A2:K365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A267" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A288" activePane="bottomLeft"/>
       <selection activeCell="A139" sqref="A139:A178"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A270"/>
+      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3234,7 +3239,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>182.625</v>
+        <v>209.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3244,7 +3249,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>285.625</v>
+        <v>331.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4811,7 +4816,9 @@
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>5</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13">
@@ -5641,15 +5648,11 @@
       <c r="A126" s="40">
         <v>40148</v>
       </c>
-      <c r="B126" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B126" s="20"/>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
-      <c r="D126" s="39">
-        <v>5</v>
-      </c>
+      <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
@@ -7859,7 +7862,9 @@
       <c r="C233" s="13">
         <v>1.25</v>
       </c>
-      <c r="D233" s="39"/>
+      <c r="D233" s="39">
+        <v>2</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
       <c r="G233" s="13">
@@ -8416,13 +8421,15 @@
         <v>43862</v>
       </c>
       <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
@@ -8434,13 +8441,15 @@
         <v>43891</v>
       </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
@@ -8452,13 +8461,15 @@
         <v>43922</v>
       </c>
       <c r="B262" s="20"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
@@ -8470,13 +8481,15 @@
         <v>43952</v>
       </c>
       <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D263" s="39"/>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
@@ -8488,13 +8501,15 @@
         <v>43983</v>
       </c>
       <c r="B264" s="20"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H264" s="39"/>
       <c r="I264" s="9"/>
@@ -8506,13 +8521,15 @@
         <v>44013</v>
       </c>
       <c r="B265" s="20"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
@@ -8524,13 +8541,15 @@
         <v>44044</v>
       </c>
       <c r="B266" s="20"/>
-      <c r="C266" s="13"/>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D266" s="39"/>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
@@ -8542,13 +8561,15 @@
         <v>44075</v>
       </c>
       <c r="B267" s="20"/>
-      <c r="C267" s="13"/>
+      <c r="C267" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D267" s="39"/>
       <c r="E267" s="9"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G267" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
@@ -8560,13 +8581,15 @@
         <v>44105</v>
       </c>
       <c r="B268" s="20"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G268" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
@@ -8578,13 +8601,15 @@
         <v>44136</v>
       </c>
       <c r="B269" s="20"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D269" s="39"/>
       <c r="E269" s="9"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
@@ -8595,14 +8620,20 @@
       <c r="A270" s="40">
         <v>44166</v>
       </c>
-      <c r="B270" s="20"/>
-      <c r="C270" s="13"/>
-      <c r="D270" s="39"/>
+      <c r="B270" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D270" s="39">
+        <v>5</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
@@ -8610,7 +8641,9 @@
       <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="40"/>
+      <c r="A271" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
@@ -8626,15 +8659,19 @@
       <c r="K271" s="20"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
+      <c r="A272" s="40">
+        <v>44197</v>
+      </c>
       <c r="B272" s="20"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
@@ -8642,15 +8679,19 @@
       <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="40"/>
+      <c r="A273" s="40">
+        <v>44228</v>
+      </c>
       <c r="B273" s="20"/>
-      <c r="C273" s="13"/>
+      <c r="C273" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D273" s="39"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G273" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
@@ -8658,15 +8699,19 @@
       <c r="K273" s="20"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="40"/>
+      <c r="A274" s="40">
+        <v>44256</v>
+      </c>
       <c r="B274" s="20"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
@@ -8674,15 +8719,19 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="40"/>
+      <c r="A275" s="40">
+        <v>44287</v>
+      </c>
       <c r="B275" s="20"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
@@ -8690,15 +8739,19 @@
       <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" s="40"/>
+      <c r="A276" s="40">
+        <v>44317</v>
+      </c>
       <c r="B276" s="20"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
@@ -8706,15 +8759,19 @@
       <c r="K276" s="20"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+      <c r="A277" s="40">
+        <v>44348</v>
+      </c>
       <c r="B277" s="20"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D277" s="39"/>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G277" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
@@ -8722,15 +8779,19 @@
       <c r="K277" s="20"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="40"/>
+      <c r="A278" s="40">
+        <v>44378</v>
+      </c>
       <c r="B278" s="20"/>
-      <c r="C278" s="13"/>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D278" s="39"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
@@ -8738,15 +8799,19 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="40"/>
+      <c r="A279" s="40">
+        <v>44409</v>
+      </c>
       <c r="B279" s="20"/>
-      <c r="C279" s="13"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D279" s="39"/>
       <c r="E279" s="9"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G279" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H279" s="39"/>
       <c r="I279" s="9"/>
@@ -8754,15 +8819,19 @@
       <c r="K279" s="20"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280" s="40"/>
+      <c r="A280" s="40">
+        <v>44440</v>
+      </c>
       <c r="B280" s="20"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D280" s="39"/>
       <c r="E280" s="9"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
@@ -8770,15 +8839,19 @@
       <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="40"/>
+      <c r="A281" s="40">
+        <v>44470</v>
+      </c>
       <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D281" s="39"/>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
@@ -8786,15 +8859,19 @@
       <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282" s="40"/>
+      <c r="A282" s="40">
+        <v>44501</v>
+      </c>
       <c r="B282" s="20"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
@@ -8802,15 +8879,23 @@
       <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="40"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
-      <c r="D283" s="39"/>
+      <c r="A283" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D283" s="39">
+        <v>5</v>
+      </c>
       <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H283" s="39"/>
       <c r="I283" s="9"/>
@@ -8818,7 +8903,9 @@
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="40"/>
+      <c r="A284" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
@@ -8834,15 +8921,19 @@
       <c r="K284" s="20"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="40"/>
+      <c r="A285" s="40">
+        <v>44562</v>
+      </c>
       <c r="B285" s="20"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D285" s="39"/>
       <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G285" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
@@ -8850,15 +8941,19 @@
       <c r="K285" s="20"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="40"/>
+      <c r="A286" s="40">
+        <v>44593</v>
+      </c>
       <c r="B286" s="20"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G286" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
@@ -8866,15 +8961,19 @@
       <c r="K286" s="20"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="40"/>
+      <c r="A287" s="40">
+        <v>44621</v>
+      </c>
       <c r="B287" s="20"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
@@ -8882,15 +8981,19 @@
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="40"/>
+      <c r="A288" s="40">
+        <v>44652</v>
+      </c>
       <c r="B288" s="20"/>
-      <c r="C288" s="13"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D288" s="39"/>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
@@ -8898,15 +9001,19 @@
       <c r="K288" s="20"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="40"/>
+      <c r="A289" s="40">
+        <v>44682</v>
+      </c>
       <c r="B289" s="20"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
@@ -8914,15 +9021,19 @@
       <c r="K289" s="20"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="40"/>
+      <c r="A290" s="40">
+        <v>44713</v>
+      </c>
       <c r="B290" s="20"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
@@ -8930,15 +9041,19 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="40"/>
+      <c r="A291" s="40">
+        <v>44743</v>
+      </c>
       <c r="B291" s="20"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G291" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
@@ -8946,15 +9061,19 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
+      <c r="A292" s="40">
+        <v>44774</v>
+      </c>
       <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D292" s="39"/>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
@@ -8962,15 +9081,19 @@
       <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40"/>
+      <c r="A293" s="40">
+        <v>44805</v>
+      </c>
       <c r="B293" s="20"/>
-      <c r="C293" s="13"/>
+      <c r="C293" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D293" s="39"/>
       <c r="E293" s="9"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G293" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
@@ -8978,15 +9101,19 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="40"/>
+      <c r="A294" s="40">
+        <v>44835</v>
+      </c>
       <c r="B294" s="20"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
@@ -8994,15 +9121,19 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="40"/>
+      <c r="A295" s="40">
+        <v>44866</v>
+      </c>
       <c r="B295" s="20"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
@@ -9010,23 +9141,35 @@
       <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="40"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
-      <c r="D296" s="39"/>
+      <c r="A296" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D296" s="39">
+        <v>5</v>
+      </c>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20"/>
+      <c r="K296" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="40"/>
+      <c r="A297" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -9042,15 +9185,19 @@
       <c r="K297" s="20"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="40"/>
+      <c r="A298" s="40">
+        <v>44927</v>
+      </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
@@ -9058,15 +9205,19 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="40"/>
+      <c r="A299" s="40">
+        <v>44958</v>
+      </c>
       <c r="B299" s="20"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
@@ -9074,10 +9225,16 @@
       <c r="K299" s="20"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="40"/>
-      <c r="B300" s="20"/>
+      <c r="A300" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="39"/>
+      <c r="D300" s="39">
+        <v>2</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
       <c r="G300" s="13" t="str">
@@ -9087,10 +9244,14 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="20"/>
+      <c r="K300" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="40"/>
+      <c r="A301" s="40">
+        <v>45017</v>
+      </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -9106,7 +9267,9 @@
       <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+      <c r="A302" s="40">
+        <v>45047</v>
+      </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
       <c r="D302" s="39"/>
@@ -9122,7 +9285,9 @@
       <c r="K302" s="20"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="40"/>
+      <c r="A303" s="40">
+        <v>45078</v>
+      </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
       <c r="D303" s="39"/>
@@ -9138,7 +9303,9 @@
       <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+      <c r="A304" s="40">
+        <v>45108</v>
+      </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -9154,7 +9321,9 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="40"/>
+      <c r="A305" s="40">
+        <v>45139</v>
+      </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -9170,7 +9339,9 @@
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="40"/>
+      <c r="A306" s="40">
+        <v>45170</v>
+      </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -9186,7 +9357,9 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40"/>
+      <c r="A307" s="40">
+        <v>45200</v>
+      </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
@@ -9202,7 +9375,9 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="40"/>
+      <c r="A308" s="40">
+        <v>45231</v>
+      </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
       <c r="D308" s="39"/>
@@ -9218,7 +9393,9 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="40"/>
+      <c r="A309" s="40">
+        <v>45261</v>
+      </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9234,7 +9411,9 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40"/>
+      <c r="A310" s="40">
+        <v>45292</v>
+      </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
@@ -9250,7 +9429,9 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="40"/>
+      <c r="A311" s="40">
+        <v>45323</v>
+      </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -9266,7 +9447,9 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="40"/>
+      <c r="A312" s="40">
+        <v>45352</v>
+      </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -9282,7 +9465,9 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="40"/>
+      <c r="A313" s="40">
+        <v>45383</v>
+      </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
@@ -9298,7 +9483,9 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="40"/>
+      <c r="A314" s="40">
+        <v>45413</v>
+      </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -9314,7 +9501,9 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="40"/>
+      <c r="A315" s="40">
+        <v>45444</v>
+      </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -9330,7 +9519,9 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="40"/>
+      <c r="A316" s="40">
+        <v>45474</v>
+      </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
       <c r="D316" s="39"/>
@@ -9346,7 +9537,9 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="40"/>
+      <c r="A317" s="40">
+        <v>45505</v>
+      </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -9362,7 +9555,9 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="40"/>
+      <c r="A318" s="40">
+        <v>45536</v>
+      </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
@@ -9378,7 +9573,9 @@
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40"/>
+      <c r="A319" s="40">
+        <v>45566</v>
+      </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -9394,7 +9591,9 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="40"/>
+      <c r="A320" s="40">
+        <v>45597</v>
+      </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -9410,7 +9609,9 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="40"/>
+      <c r="A321" s="40">
+        <v>45627</v>
+      </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -9426,7 +9627,9 @@
       <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="40"/>
+      <c r="A322" s="40">
+        <v>45658</v>
+      </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
@@ -9442,7 +9645,9 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40"/>
+      <c r="A323" s="40">
+        <v>45689</v>
+      </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
@@ -9458,7 +9663,9 @@
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="40"/>
+      <c r="A324" s="40">
+        <v>45717</v>
+      </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -9474,7 +9681,9 @@
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="40"/>
+      <c r="A325" s="40">
+        <v>45748</v>
+      </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
@@ -9490,7 +9699,9 @@
       <c r="K325" s="20"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="40"/>
+      <c r="A326" s="40">
+        <v>45778</v>
+      </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -9506,7 +9717,9 @@
       <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40"/>
+      <c r="A327" s="40">
+        <v>45809</v>
+      </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -9522,7 +9735,9 @@
       <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40"/>
+      <c r="A328" s="40">
+        <v>45839</v>
+      </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -9538,7 +9753,9 @@
       <c r="K328" s="20"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+      <c r="A329" s="40">
+        <v>45870</v>
+      </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -9554,7 +9771,9 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40"/>
+      <c r="A330" s="40">
+        <v>45901</v>
+      </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -9570,7 +9789,9 @@
       <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+      <c r="A331" s="40">
+        <v>45931</v>
+      </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
@@ -9586,7 +9807,9 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40"/>
+      <c r="A332" s="40">
+        <v>45962</v>
+      </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -9602,7 +9825,9 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="40"/>
+      <c r="A333" s="40">
+        <v>45992</v>
+      </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -9618,7 +9843,9 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40"/>
+      <c r="A334" s="40">
+        <v>46023</v>
+      </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -9634,7 +9861,9 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40"/>
+      <c r="A335" s="40">
+        <v>46054</v>
+      </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -9650,7 +9879,9 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
+      <c r="A336" s="40">
+        <v>46082</v>
+      </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -9666,7 +9897,9 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
+      <c r="A337" s="40">
+        <v>46113</v>
+      </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -9682,7 +9915,9 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
+      <c r="A338" s="40">
+        <v>46143</v>
+      </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -9698,7 +9933,9 @@
       <c r="K338" s="20"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
+      <c r="A339" s="40">
+        <v>46174</v>
+      </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -9714,7 +9951,9 @@
       <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+      <c r="A340" s="40">
+        <v>46204</v>
+      </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -9730,7 +9969,9 @@
       <c r="K340" s="20"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
+      <c r="A341" s="40">
+        <v>46235</v>
+      </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
@@ -9746,7 +9987,9 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+      <c r="A342" s="40">
+        <v>46266</v>
+      </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -9762,7 +10005,9 @@
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+      <c r="A343" s="40">
+        <v>46296</v>
+      </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -9778,7 +10023,9 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+      <c r="A344" s="40">
+        <v>46327</v>
+      </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -9794,7 +10041,9 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+      <c r="A345" s="40">
+        <v>46357</v>
+      </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -9810,7 +10059,9 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+      <c r="A346" s="40">
+        <v>46388</v>
+      </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -9826,7 +10077,9 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
+      <c r="A347" s="40">
+        <v>46419</v>
+      </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
@@ -9842,7 +10095,9 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="40"/>
+      <c r="A348" s="40">
+        <v>46447</v>
+      </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -9858,7 +10113,9 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="40"/>
+      <c r="A349" s="40">
+        <v>46478</v>
+      </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -9874,7 +10131,9 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="40"/>
+      <c r="A350" s="40">
+        <v>46508</v>
+      </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -9890,7 +10149,9 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="40"/>
+      <c r="A351" s="40">
+        <v>46539</v>
+      </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
@@ -9906,7 +10167,9 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="40"/>
+      <c r="A352" s="40">
+        <v>46569</v>
+      </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -9922,7 +10185,9 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="40"/>
+      <c r="A353" s="40">
+        <v>46600</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -9938,7 +10203,9 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="40"/>
+      <c r="A354" s="40">
+        <v>46631</v>
+      </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -9954,7 +10221,9 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="40"/>
+      <c r="A355" s="40">
+        <v>46661</v>
+      </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -10066,20 +10335,68 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="41"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="42"/>
-      <c r="D362" s="43"/>
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
       <c r="E362" s="9"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="42" t="str">
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H362" s="43"/>
+      <c r="H362" s="39"/>
       <c r="I362" s="9"/>
-      <c r="J362" s="12"/>
-      <c r="K362" s="15"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="41"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="42"/>
+      <c r="D365" s="43"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="43"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10096,10 +10413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10122,7 +10439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>

--- a/REGULAR/OJT/NEW DONE/SUMAONG, DANILO.xlsx
+++ b/REGULAR/OJT/NEW DONE/SUMAONG, DANILO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7658AE75-373A-4D28-9899-695F13A506D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -300,11 +299,20 @@
   <si>
     <t>12/23,26-29/2022</t>
   </si>
+  <si>
+    <t>ADMIN AIDE-I</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>HALL OF JUSTICE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1164,7 +1172,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1215,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1279,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1339,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1405,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1468,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1566,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1625,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1690,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1733,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1808,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1994,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2060,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2118,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2184,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2240,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2315,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2358,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2424,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2480,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2578,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2641,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,25 +2707,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2729,13 +2737,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2744,14 +2752,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3055,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3065,7 +3073,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3073,34 +3081,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A288" activePane="bottomLeft"/>
-      <selection activeCell="A139" sqref="A139:A178"/>
-      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
+      <pane ySplit="3690" topLeftCell="A288" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3121,11 +3129,13 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3139,16 +3149,20 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3157,7 +3171,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3165,7 +3179,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3178,7 +3192,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3195,7 +3209,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3239,7 +3253,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>209.875</v>
+        <v>211.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3249,12 +3263,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>331.875</v>
+        <v>333.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -3272,7 +3286,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36892</v>
       </c>
@@ -3296,7 +3310,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36923</v>
       </c>
@@ -3316,7 +3330,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36951</v>
       </c>
@@ -3336,7 +3350,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36982</v>
       </c>
@@ -3356,7 +3370,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>37012</v>
       </c>
@@ -3376,7 +3390,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>37043</v>
       </c>
@@ -3396,7 +3410,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>37073</v>
       </c>
@@ -3416,7 +3430,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>37104</v>
       </c>
@@ -3436,7 +3450,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>37135</v>
       </c>
@@ -3456,7 +3470,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>37165</v>
       </c>
@@ -3476,7 +3490,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>37196</v>
       </c>
@@ -3496,7 +3510,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>37226</v>
       </c>
@@ -3520,7 +3534,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3542,7 +3556,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>37257</v>
       </c>
@@ -3562,7 +3576,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>37288</v>
       </c>
@@ -3582,7 +3596,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37316</v>
       </c>
@@ -3602,7 +3616,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>37347</v>
       </c>
@@ -3622,7 +3636,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>37377</v>
       </c>
@@ -3642,7 +3656,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>37408</v>
       </c>
@@ -3662,7 +3676,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>37438</v>
       </c>
@@ -3682,7 +3696,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>37469</v>
       </c>
@@ -3702,7 +3716,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>37500</v>
       </c>
@@ -3722,7 +3736,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>37530</v>
       </c>
@@ -3742,7 +3756,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37561</v>
       </c>
@@ -3762,7 +3776,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>37591</v>
       </c>
@@ -3786,7 +3800,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -3808,7 +3822,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37622</v>
       </c>
@@ -3828,7 +3842,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37653</v>
       </c>
@@ -3848,7 +3862,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37681</v>
       </c>
@@ -3868,7 +3882,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37712</v>
       </c>
@@ -3888,7 +3902,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37742</v>
       </c>
@@ -3908,7 +3922,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37773</v>
       </c>
@@ -3928,7 +3942,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37803</v>
       </c>
@@ -3948,7 +3962,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>37834</v>
       </c>
@@ -3968,7 +3982,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37865</v>
       </c>
@@ -3988,7 +4002,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37895</v>
       </c>
@@ -4008,7 +4022,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37926</v>
       </c>
@@ -4028,7 +4042,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37956</v>
       </c>
@@ -4052,7 +4066,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4074,7 +4088,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37987</v>
       </c>
@@ -4094,7 +4108,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38018</v>
       </c>
@@ -4114,7 +4128,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>38047</v>
       </c>
@@ -4134,7 +4148,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>38078</v>
       </c>
@@ -4154,7 +4168,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38108</v>
       </c>
@@ -4174,7 +4188,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>38139</v>
       </c>
@@ -4194,7 +4208,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>38169</v>
       </c>
@@ -4214,7 +4228,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>38200</v>
       </c>
@@ -4234,7 +4248,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>38231</v>
       </c>
@@ -4254,7 +4268,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>38261</v>
       </c>
@@ -4274,7 +4288,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>38292</v>
       </c>
@@ -4294,7 +4308,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>38322</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>44</v>
       </c>
@@ -4340,7 +4354,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>38353</v>
       </c>
@@ -4360,7 +4374,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>38384</v>
       </c>
@@ -4380,7 +4394,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>38412</v>
       </c>
@@ -4400,7 +4414,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>38443</v>
       </c>
@@ -4420,7 +4434,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38473</v>
       </c>
@@ -4440,7 +4454,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38504</v>
       </c>
@@ -4460,7 +4474,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38534</v>
       </c>
@@ -4480,7 +4494,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>38565</v>
       </c>
@@ -4500,7 +4514,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>38596</v>
       </c>
@@ -4520,7 +4534,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>38626</v>
       </c>
@@ -4540,7 +4554,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>38657</v>
       </c>
@@ -4560,7 +4574,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>38687</v>
       </c>
@@ -4584,7 +4598,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>43</v>
       </c>
@@ -4606,7 +4620,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38718</v>
       </c>
@@ -4626,7 +4640,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38749</v>
       </c>
@@ -4646,7 +4660,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38777</v>
       </c>
@@ -4666,7 +4680,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38808</v>
       </c>
@@ -4686,7 +4700,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38838</v>
       </c>
@@ -4706,7 +4720,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>38869</v>
       </c>
@@ -4726,7 +4740,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38899</v>
       </c>
@@ -4746,7 +4760,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38930</v>
       </c>
@@ -4766,7 +4780,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38961</v>
       </c>
@@ -4786,7 +4800,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38991</v>
       </c>
@@ -4806,7 +4820,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>39022</v>
       </c>
@@ -4830,7 +4844,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>39052</v>
       </c>
@@ -4852,7 +4866,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>54</v>
       </c>
@@ -4874,7 +4888,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39083</v>
       </c>
@@ -4894,7 +4908,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>39114</v>
       </c>
@@ -4920,7 +4934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>39142</v>
       </c>
@@ -4940,7 +4954,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>39173</v>
       </c>
@@ -4960,7 +4974,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39203</v>
       </c>
@@ -4980,7 +4994,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39234</v>
       </c>
@@ -5000,7 +5014,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39264</v>
       </c>
@@ -5020,7 +5034,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39295</v>
       </c>
@@ -5046,7 +5060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39326</v>
       </c>
@@ -5066,7 +5080,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39356</v>
       </c>
@@ -5086,7 +5100,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>39387</v>
       </c>
@@ -5106,7 +5120,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39417</v>
       </c>
@@ -5126,7 +5140,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>53</v>
       </c>
@@ -5148,7 +5162,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>39448</v>
       </c>
@@ -5172,7 +5186,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39479</v>
       </c>
@@ -5192,7 +5206,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39508</v>
       </c>
@@ -5212,7 +5226,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>39539</v>
       </c>
@@ -5232,7 +5246,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39569</v>
       </c>
@@ -5252,7 +5266,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39600</v>
       </c>
@@ -5272,7 +5286,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39630</v>
       </c>
@@ -5292,7 +5306,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>39661</v>
       </c>
@@ -5312,7 +5326,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>39692</v>
       </c>
@@ -5332,7 +5346,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39722</v>
       </c>
@@ -5352,7 +5366,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39753</v>
       </c>
@@ -5372,7 +5386,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>39783</v>
       </c>
@@ -5396,7 +5410,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>52</v>
       </c>
@@ -5418,7 +5432,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>39814</v>
       </c>
@@ -5444,7 +5458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>39845</v>
       </c>
@@ -5464,7 +5478,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>39873</v>
       </c>
@@ -5484,7 +5498,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>39904</v>
       </c>
@@ -5504,7 +5518,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>39934</v>
       </c>
@@ -5524,7 +5538,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39965</v>
       </c>
@@ -5544,7 +5558,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39995</v>
       </c>
@@ -5564,7 +5578,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>40026</v>
       </c>
@@ -5584,7 +5598,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40057</v>
       </c>
@@ -5604,7 +5618,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40087</v>
       </c>
@@ -5624,7 +5638,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40118</v>
       </c>
@@ -5644,7 +5658,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>40148</v>
       </c>
@@ -5664,7 +5678,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>51</v>
       </c>
@@ -5686,7 +5700,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>40179</v>
       </c>
@@ -5706,7 +5720,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>40210</v>
       </c>
@@ -5726,7 +5740,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40238</v>
       </c>
@@ -5746,7 +5760,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>40269</v>
       </c>
@@ -5766,7 +5780,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>40299</v>
       </c>
@@ -5786,7 +5800,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>40330</v>
       </c>
@@ -5806,7 +5820,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40360</v>
       </c>
@@ -5826,7 +5840,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>40391</v>
       </c>
@@ -5846,7 +5860,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40422</v>
       </c>
@@ -5866,7 +5880,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40452</v>
       </c>
@@ -5886,7 +5900,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>40483</v>
       </c>
@@ -5906,7 +5920,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40513</v>
       </c>
@@ -5930,7 +5944,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>60</v>
       </c>
@@ -5952,7 +5966,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40544</v>
       </c>
@@ -5976,7 +5990,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>40575</v>
       </c>
@@ -5996,7 +6010,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40603</v>
       </c>
@@ -6016,7 +6030,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40634</v>
       </c>
@@ -6036,7 +6050,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40664</v>
       </c>
@@ -6056,7 +6070,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>40695</v>
       </c>
@@ -6076,7 +6090,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40725</v>
       </c>
@@ -6096,7 +6110,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>40756</v>
       </c>
@@ -6120,7 +6134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40787</v>
       </c>
@@ -6140,7 +6154,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40817</v>
       </c>
@@ -6160,7 +6174,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40848</v>
       </c>
@@ -6180,7 +6194,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>40878</v>
       </c>
@@ -6204,7 +6218,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>59</v>
       </c>
@@ -6226,7 +6240,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6246,7 +6260,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40940</v>
       </c>
@@ -6266,7 +6280,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40969</v>
       </c>
@@ -6286,7 +6300,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>41000</v>
       </c>
@@ -6306,7 +6320,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>41030</v>
       </c>
@@ -6326,7 +6340,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>41061</v>
       </c>
@@ -6346,7 +6360,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>41091</v>
       </c>
@@ -6366,7 +6380,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>41122</v>
       </c>
@@ -6386,7 +6400,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>41153</v>
       </c>
@@ -6406,7 +6420,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>41183</v>
       </c>
@@ -6426,7 +6440,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41214</v>
       </c>
@@ -6446,7 +6460,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>41244</v>
       </c>
@@ -6470,7 +6484,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
         <v>62</v>
       </c>
@@ -6492,7 +6506,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41275</v>
       </c>
@@ -6512,7 +6526,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41306</v>
       </c>
@@ -6532,7 +6546,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>41334</v>
       </c>
@@ -6552,7 +6566,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41365</v>
       </c>
@@ -6572,7 +6586,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41395</v>
       </c>
@@ -6592,7 +6606,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>41426</v>
       </c>
@@ -6612,7 +6626,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41456</v>
       </c>
@@ -6632,7 +6646,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41487</v>
       </c>
@@ -6652,7 +6666,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>41518</v>
       </c>
@@ -6672,7 +6686,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41548</v>
       </c>
@@ -6692,7 +6706,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41579</v>
       </c>
@@ -6712,7 +6726,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41609</v>
       </c>
@@ -6736,7 +6750,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>63</v>
       </c>
@@ -6758,7 +6772,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41640</v>
       </c>
@@ -6778,7 +6792,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41671</v>
       </c>
@@ -6798,7 +6812,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41699</v>
       </c>
@@ -6818,7 +6832,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41730</v>
       </c>
@@ -6838,7 +6852,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41760</v>
       </c>
@@ -6858,7 +6872,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41791</v>
       </c>
@@ -6878,7 +6892,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41821</v>
       </c>
@@ -6898,7 +6912,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>41852</v>
       </c>
@@ -6918,7 +6932,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>41883</v>
       </c>
@@ -6938,7 +6952,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>41913</v>
       </c>
@@ -6958,7 +6972,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41944</v>
       </c>
@@ -6978,7 +6992,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>41974</v>
       </c>
@@ -7002,7 +7016,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="48" t="s">
         <v>64</v>
       </c>
@@ -7024,7 +7038,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>42005</v>
       </c>
@@ -7046,7 +7060,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>42036</v>
       </c>
@@ -7066,7 +7080,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>42064</v>
       </c>
@@ -7086,7 +7100,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>42095</v>
       </c>
@@ -7106,7 +7120,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>42125</v>
       </c>
@@ -7126,7 +7140,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>42156</v>
       </c>
@@ -7146,7 +7160,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>42186</v>
       </c>
@@ -7166,7 +7180,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>42217</v>
       </c>
@@ -7186,7 +7200,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>42248</v>
       </c>
@@ -7206,7 +7220,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42278</v>
       </c>
@@ -7226,7 +7240,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42309</v>
       </c>
@@ -7246,7 +7260,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>42339</v>
       </c>
@@ -7270,7 +7284,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -7292,7 +7306,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>42370</v>
       </c>
@@ -7312,7 +7326,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>42401</v>
       </c>
@@ -7332,7 +7346,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42430</v>
       </c>
@@ -7352,7 +7366,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>42461</v>
       </c>
@@ -7372,7 +7386,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42491</v>
       </c>
@@ -7392,7 +7406,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>42522</v>
       </c>
@@ -7412,7 +7426,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>42552</v>
       </c>
@@ -7436,7 +7450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>70</v>
@@ -7458,7 +7472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>42583</v>
       </c>
@@ -7478,7 +7492,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42614</v>
       </c>
@@ -7502,7 +7516,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42644</v>
       </c>
@@ -7522,7 +7536,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42675</v>
       </c>
@@ -7542,7 +7556,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42705</v>
       </c>
@@ -7566,7 +7580,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>69</v>
       </c>
@@ -7588,7 +7602,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42736</v>
       </c>
@@ -7608,7 +7622,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42767</v>
       </c>
@@ -7628,7 +7642,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42795</v>
       </c>
@@ -7648,7 +7662,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>42826</v>
       </c>
@@ -7668,7 +7682,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>42856</v>
       </c>
@@ -7688,7 +7702,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>42887</v>
       </c>
@@ -7708,7 +7722,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>42917</v>
       </c>
@@ -7728,7 +7742,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>42948</v>
       </c>
@@ -7748,7 +7762,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42979</v>
       </c>
@@ -7768,7 +7782,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>43009</v>
       </c>
@@ -7788,7 +7802,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>43040</v>
       </c>
@@ -7808,7 +7822,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>43070</v>
       </c>
@@ -7830,7 +7844,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>74</v>
       </c>
@@ -7852,7 +7866,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43101</v>
       </c>
@@ -7878,7 +7892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>43132</v>
       </c>
@@ -7898,7 +7912,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>43160</v>
       </c>
@@ -7918,7 +7932,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43191</v>
       </c>
@@ -7938,7 +7952,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>43221</v>
       </c>
@@ -7958,7 +7972,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>43252</v>
       </c>
@@ -7978,7 +7992,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>43282</v>
       </c>
@@ -7998,7 +8012,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>43313</v>
       </c>
@@ -8018,7 +8032,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43344</v>
       </c>
@@ -8038,7 +8052,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43374</v>
       </c>
@@ -8058,7 +8072,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>43405</v>
       </c>
@@ -8078,7 +8092,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43435</v>
       </c>
@@ -8102,7 +8116,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
         <v>80</v>
       </c>
@@ -8124,7 +8138,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>43466</v>
       </c>
@@ -8144,7 +8158,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>43497</v>
       </c>
@@ -8164,7 +8178,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>43525</v>
       </c>
@@ -8184,7 +8198,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>43556</v>
       </c>
@@ -8204,7 +8218,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>43586</v>
       </c>
@@ -8224,7 +8238,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>43617</v>
       </c>
@@ -8244,7 +8258,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43647</v>
       </c>
@@ -8264,7 +8278,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>43678</v>
       </c>
@@ -8284,7 +8298,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43709</v>
       </c>
@@ -8310,7 +8324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43739</v>
       </c>
@@ -8330,7 +8344,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>43770</v>
       </c>
@@ -8350,7 +8364,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43800</v>
       </c>
@@ -8370,7 +8384,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>77</v>
       </c>
@@ -8392,7 +8406,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43831</v>
       </c>
@@ -8416,7 +8430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43862</v>
       </c>
@@ -8436,7 +8450,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>43891</v>
       </c>
@@ -8456,7 +8470,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>43922</v>
       </c>
@@ -8476,7 +8490,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43952</v>
       </c>
@@ -8496,7 +8510,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>43983</v>
       </c>
@@ -8516,7 +8530,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>44013</v>
       </c>
@@ -8536,7 +8550,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>44044</v>
       </c>
@@ -8556,7 +8570,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>44075</v>
       </c>
@@ -8576,7 +8590,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>44105</v>
       </c>
@@ -8596,7 +8610,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>44136</v>
       </c>
@@ -8616,7 +8630,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>44166</v>
       </c>
@@ -8640,7 +8654,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>83</v>
       </c>
@@ -8658,7 +8672,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>44197</v>
       </c>
@@ -8678,7 +8692,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44228</v>
       </c>
@@ -8698,7 +8712,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44256</v>
       </c>
@@ -8718,7 +8732,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>44287</v>
       </c>
@@ -8738,7 +8752,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>44317</v>
       </c>
@@ -8758,7 +8772,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>44348</v>
       </c>
@@ -8778,7 +8792,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44378</v>
       </c>
@@ -8798,7 +8812,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>44409</v>
       </c>
@@ -8818,7 +8832,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>44440</v>
       </c>
@@ -8838,7 +8852,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>44470</v>
       </c>
@@ -8858,7 +8872,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>44501</v>
       </c>
@@ -8878,7 +8892,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>44531</v>
       </c>
@@ -8902,7 +8916,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>84</v>
       </c>
@@ -8920,7 +8934,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44562</v>
       </c>
@@ -8940,7 +8954,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>44593</v>
       </c>
@@ -8960,7 +8974,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44621</v>
       </c>
@@ -8980,7 +8994,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>44652</v>
       </c>
@@ -9000,7 +9014,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44682</v>
       </c>
@@ -9020,7 +9034,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>44713</v>
       </c>
@@ -9040,7 +9054,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44743</v>
       </c>
@@ -9060,7 +9074,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44774</v>
       </c>
@@ -9080,7 +9094,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>44805</v>
       </c>
@@ -9100,7 +9114,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>44835</v>
       </c>
@@ -9120,7 +9134,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>44866</v>
       </c>
@@ -9140,7 +9154,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44896</v>
       </c>
@@ -9166,7 +9180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="48" t="s">
         <v>85</v>
       </c>
@@ -9184,7 +9198,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44927</v>
       </c>
@@ -9204,7 +9218,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>44958</v>
       </c>
@@ -9224,22 +9238,24 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44986</v>
       </c>
       <c r="B300" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C300" s="13"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D300" s="39">
         <v>2</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
@@ -9248,7 +9264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>45017</v>
       </c>
@@ -9266,7 +9282,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>45047</v>
       </c>
@@ -9284,7 +9300,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>45078</v>
       </c>
@@ -9302,7 +9318,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>45108</v>
       </c>
@@ -9320,7 +9336,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>45139</v>
       </c>
@@ -9338,7 +9354,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>45170</v>
       </c>
@@ -9356,7 +9372,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45200</v>
       </c>
@@ -9374,7 +9390,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45231</v>
       </c>
@@ -9392,7 +9408,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45261</v>
       </c>
@@ -9410,7 +9426,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>45292</v>
       </c>
@@ -9428,7 +9444,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>45323</v>
       </c>
@@ -9446,7 +9462,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>45352</v>
       </c>
@@ -9464,7 +9480,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>45383</v>
       </c>
@@ -9482,7 +9498,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>45413</v>
       </c>
@@ -9500,7 +9516,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>45444</v>
       </c>
@@ -9518,7 +9534,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>45474</v>
       </c>
@@ -9536,7 +9552,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>45505</v>
       </c>
@@ -9554,7 +9570,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>45536</v>
       </c>
@@ -9572,7 +9588,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>45566</v>
       </c>
@@ -9590,7 +9606,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>45597</v>
       </c>
@@ -9608,7 +9624,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>45627</v>
       </c>
@@ -9626,7 +9642,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>45658</v>
       </c>
@@ -9644,7 +9660,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>45689</v>
       </c>
@@ -9662,7 +9678,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>45717</v>
       </c>
@@ -9680,7 +9696,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>45748</v>
       </c>
@@ -9698,7 +9714,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>45778</v>
       </c>
@@ -9716,7 +9732,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>45809</v>
       </c>
@@ -9734,7 +9750,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>45839</v>
       </c>
@@ -9752,7 +9768,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>45870</v>
       </c>
@@ -9770,7 +9786,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>45901</v>
       </c>
@@ -9788,7 +9804,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>45931</v>
       </c>
@@ -9806,7 +9822,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>45962</v>
       </c>
@@ -9824,7 +9840,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>45992</v>
       </c>
@@ -9842,7 +9858,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>46023</v>
       </c>
@@ -9860,7 +9876,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>46054</v>
       </c>
@@ -9878,7 +9894,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>46082</v>
       </c>
@@ -9896,7 +9912,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>46113</v>
       </c>
@@ -9914,7 +9930,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>46143</v>
       </c>
@@ -9932,7 +9948,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>46174</v>
       </c>
@@ -9950,7 +9966,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>46204</v>
       </c>
@@ -9968,7 +9984,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>46235</v>
       </c>
@@ -9986,7 +10002,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>46266</v>
       </c>
@@ -10004,7 +10020,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>46296</v>
       </c>
@@ -10022,7 +10038,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>46327</v>
       </c>
@@ -10040,7 +10056,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>46357</v>
       </c>
@@ -10058,7 +10074,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>46388</v>
       </c>
@@ -10076,7 +10092,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>46419</v>
       </c>
@@ -10094,7 +10110,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>46447</v>
       </c>
@@ -10112,7 +10128,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>46478</v>
       </c>
@@ -10130,7 +10146,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>46508</v>
       </c>
@@ -10148,7 +10164,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>46539</v>
       </c>
@@ -10166,7 +10182,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>46569</v>
       </c>
@@ -10184,7 +10200,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>46600</v>
       </c>
@@ -10202,7 +10218,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>46631</v>
       </c>
@@ -10220,7 +10236,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>46661</v>
       </c>
@@ -10238,7 +10254,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10254,7 +10270,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10270,7 +10286,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10286,7 +10302,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10302,7 +10318,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10318,7 +10334,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10334,7 +10350,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10350,7 +10366,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10366,7 +10382,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10382,7 +10398,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="41"/>
       <c r="B365" s="15"/>
       <c r="C365" s="42"/>
@@ -10412,11 +10428,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10439,7 +10455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -10447,21 +10463,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -10474,7 +10490,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10503,7 +10519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -10523,17 +10539,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10554,7 +10570,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10581,7 +10597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10607,7 +10623,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10633,7 +10649,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10659,7 +10675,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10685,7 +10701,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10711,7 +10727,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10737,7 +10753,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10763,7 +10779,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10783,7 +10799,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10803,7 +10819,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10823,7 +10839,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10844,7 +10860,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10865,7 +10881,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10886,7 +10902,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10907,7 +10923,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10928,7 +10944,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10949,7 +10965,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10970,7 +10986,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10991,7 +11007,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11012,7 +11028,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11033,7 +11049,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11054,7 +11070,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11075,7 +11091,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11096,7 +11112,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11117,7 +11133,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11138,7 +11154,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11159,7 +11175,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11180,7 +11196,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11201,7 +11217,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11222,7 +11238,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11243,7 +11259,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11252,7 +11268,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11261,7 +11277,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11270,7 +11286,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11279,7 +11295,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11288,7 +11304,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11297,7 +11313,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11306,7 +11322,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11315,7 +11331,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11324,7 +11340,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11333,7 +11349,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11342,7 +11358,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11351,7 +11367,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11360,7 +11376,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11369,7 +11385,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11378,7 +11394,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11387,7 +11403,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11396,7 +11412,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11405,7 +11421,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11414,7 +11430,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11423,7 +11439,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11432,7 +11448,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11441,7 +11457,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11450,7 +11466,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11459,7 +11475,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11468,7 +11484,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11477,7 +11493,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11486,7 +11502,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11495,7 +11511,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11504,7 +11520,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
